--- a/tables/Table_S8_signatures.xlsx
+++ b/tables/Table_S8_signatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/GitHub/Taiji_ALTRA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FB108E-A53D-C341-BA4D-0271B07DC6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E299E-3668-7740-B141-C9C67E23B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{6D9DF796-C076-4F4C-97CF-291568FBA091}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{6D9DF796-C076-4F4C-97CF-291568FBA091}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S8" sheetId="1" r:id="rId1"/>
@@ -53,46 +53,31 @@
     <t>Transcriptional regulation by RUNX2</t>
   </si>
   <si>
-    <t>SP7/SOX9/NKX3-2/DLX6/HAND2/DLX5/HEY1/MSX2/ZNF521/TWIST1/TWIST2/SATB2/GLI3/AR/HEY2/HES1</t>
-  </si>
-  <si>
-    <t>FBXL16/SPON2/KRT5/KRT6A/PPIAP40/NR2E3/MAPK8/CTSLP3/FAM99A/ZNF76</t>
-  </si>
-  <si>
     <t>YAP1- and WWTR1 (TAZ)-stimulated gene expression</t>
   </si>
   <si>
-    <t>NKX2-5/GATA4/TEAD4/TEAD1/TEAD2/TEAD3</t>
-  </si>
-  <si>
-    <t>KRT5/TNS3/KRT6A/PPIAP40/NR2E3/FNBP1P1/CTSLP3/FAM99A/THBD/ZNF76</t>
-  </si>
-  <si>
     <t>SUMOylation of intracellular receptors</t>
   </si>
   <si>
-    <t>PGR/NR5A1/NR5A2/NR1I2/THRB/PPARG/AR</t>
-  </si>
-  <si>
-    <t>SETD1B/DIABLO/KDM2B-DT/CAB39/FABP5/SGK1/RPTOR/EIF4ENIF1/ITPKB-IT1/KLC1</t>
-  </si>
-  <si>
     <t>NOTCH3 Intracellular Domain Regulates Transcription</t>
   </si>
   <si>
-    <t>HEYL/HES5/HEY1/HEY2/HES1</t>
-  </si>
-  <si>
-    <t>RNY1P3/GPC6-AS1/CDADC1/CMIP/ATP8A2/EDAR/HIVEP1/SLC22A2/RPL34P6/PAICS</t>
-  </si>
-  <si>
     <t>Deactivation of the beta-catenin transactivating complex</t>
   </si>
   <si>
-    <t>SOX9/SOX2/SOX6/SOX7/TCF7L1/SOX13</t>
-  </si>
-  <si>
-    <t>LIPG/MYO5B/MTND6P24/ANO10/TGFB1I1/C18ORF32/DYM/SNORD58C/ABCB4/SKA1</t>
+    <t>SP7/SOX9/NKX3-2/HEY1/MSX2/ZNF521/TWIST1/TWIST2/SATB2/GLI3/AR/HEY2/HES1/SMAD1</t>
+  </si>
+  <si>
+    <t>PGR/NR5A1/NR5A2/NR1I2/THRB/AR/PPARG</t>
+  </si>
+  <si>
+    <t>HES5/HEYL/HEY1/HEY2/HES1/PBX1</t>
+  </si>
+  <si>
+    <t>GATA4/TEAD4/TEAD1/TEAD2/TEAD3</t>
+  </si>
+  <si>
+    <t>SOX9/SOX6/SOX7/TCF7L1/SOX13</t>
   </si>
   <si>
     <r>
@@ -102,19 +87,32 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Aptos"/>
       </rPr>
       <t xml:space="preserve"> Identified signature pathways with signature TFs and its representative downstream genes</t>
     </r>
+  </si>
+  <si>
+    <t>FBXL16/SPON2/KRT5/KRT6A/PPIAP40/NR2E3/CTSLP3/FAM99A/ZNF76/RANBP20P</t>
+  </si>
+  <si>
+    <t>KRT5/TNS3/KRT6A/CTSLP3/FAM99A/RANBP20P/ALG1L15P/SLC8A1-AS1/OSBPL9P4/BOD1L1</t>
+  </si>
+  <si>
+    <t>SPECC1/ESYT2/NCAPG2/WDR60/TUBA8/COX10-AS1/HS3ST3B1/GATA6-AS1/BLOC1S6/HMGN2P46/SLC30A4/SQOR</t>
+  </si>
+  <si>
+    <t>MAP3K8/RPL31P7/SERPINB9P1/CDADC1/MTMR10/SLC22A2/CCER1/CBL/RPL34P6/RORA</t>
+  </si>
+  <si>
+    <t>KIZ/EDRF1/VCX/FICD/MTRF1L/IGLV4-3/ELF1/KBTBD6/KBTBD7/MTRF1/WBP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,12 +121,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,19 +178,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -199,47 +192,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,9 +221,56 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -282,10 +296,10 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -310,38 +324,8 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Aptos"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -364,64 +348,26 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -440,16 +386,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA3DC11E-C1AA-1C4F-8B54-975BDF39D80F}" name="Table2" displayName="Table2" ref="A3:D9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A3:D9" xr:uid="{EEC8D992-B7B8-1843-8935-D9C66615026F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA3DC11E-C1AA-1C4F-8B54-975BDF39D80F}" name="Table2" displayName="Table2" ref="A3:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A3:D8" xr:uid="{EEC8D992-B7B8-1843-8935-D9C66615026F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D8">
     <sortCondition ref="B3:B8"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A9368E0A-3620-544E-A30A-9CE9DB5DD067}" name="Pathways" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FDBDEBC3-0B65-4747-9A53-94ED9E4FBE07}" name="p.adjust" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{249F1AE7-F403-1643-952D-1B7229C43725}" name="TFs" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{42CDB910-A5D2-7D4E-BFD3-60D98A92C620}" name="Downstream genes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A9368E0A-3620-544E-A30A-9CE9DB5DD067}" name="Pathways" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FDBDEBC3-0B65-4747-9A53-94ED9E4FBE07}" name="p.adjust" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{249F1AE7-F403-1643-952D-1B7229C43725}" name="TFs" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{42CDB910-A5D2-7D4E-BFD3-60D98A92C620}" name="Downstream genes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -772,118 +718,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C53AC7-5239-9242-9B08-140425CE95FA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="103.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>6.6099999999999999E-10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="B4" s="7">
+        <v>3.58551492006956E-8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>7.4799999999999997E-7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.4707837448085002E-6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2.9500000000000001E-6</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.53131036595888E-5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2.3000000000000001E-4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.9576580452263901E-5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.0797559053437401E-3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/Table_S8_signatures.xlsx
+++ b/tables/Table_S8_signatures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/GitHub/Taiji_ALTRA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E299E-3668-7740-B141-C9C67E23B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7306B0D7-B16B-A24C-846A-9DB9482CF1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{6D9DF796-C076-4F4C-97CF-291568FBA091}"/>
+    <workbookView xWindow="38400" yWindow="3140" windowWidth="38400" windowHeight="21100" xr2:uid="{6D9DF796-C076-4F4C-97CF-291568FBA091}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S8" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,7 @@
     <t>Deactivation of the beta-catenin transactivating complex</t>
   </si>
   <si>
-    <t>SP7/SOX9/NKX3-2/HEY1/MSX2/ZNF521/TWIST1/TWIST2/SATB2/GLI3/AR/HEY2/HES1/SMAD1</t>
-  </si>
-  <si>
     <t>PGR/NR5A1/NR5A2/NR1I2/THRB/AR/PPARG</t>
-  </si>
-  <si>
-    <t>HES5/HEYL/HEY1/HEY2/HES1/PBX1</t>
-  </si>
-  <si>
-    <t>GATA4/TEAD4/TEAD1/TEAD2/TEAD3</t>
-  </si>
-  <si>
-    <t>SOX9/SOX6/SOX7/TCF7L1/SOX13</t>
   </si>
   <si>
     <r>
@@ -93,37 +81,44 @@
     </r>
   </si>
   <si>
-    <t>FBXL16/SPON2/KRT5/KRT6A/PPIAP40/NR2E3/CTSLP3/FAM99A/ZNF76/RANBP20P</t>
-  </si>
-  <si>
-    <t>KRT5/TNS3/KRT6A/CTSLP3/FAM99A/RANBP20P/ALG1L15P/SLC8A1-AS1/OSBPL9P4/BOD1L1</t>
-  </si>
-  <si>
     <t>SPECC1/ESYT2/NCAPG2/WDR60/TUBA8/COX10-AS1/HS3ST3B1/GATA6-AS1/BLOC1S6/HMGN2P46/SLC30A4/SQOR</t>
   </si>
   <si>
-    <t>MAP3K8/RPL31P7/SERPINB9P1/CDADC1/MTMR10/SLC22A2/CCER1/CBL/RPL34P6/RORA</t>
-  </si>
-  <si>
-    <t>KIZ/EDRF1/VCX/FICD/MTRF1L/IGLV4-3/ELF1/KBTBD6/KBTBD7/MTRF1/WBP4</t>
+    <t>SP7/SOX9/DLX6/NKX3-2/HAND2/DLX5/HEY1/ZNF521/MSX2/TWIST1/TWIST2/SATB2/GLI3/AR/HES1/HEY2/SMAD1</t>
+  </si>
+  <si>
+    <t>FCRL4/FBXL16/RPL7P51/SIGLEC5/RPL7P33/IRGM/GP1BB/PPIAP40/EEF1GP3/ADGRG7</t>
+  </si>
+  <si>
+    <t>NKX2-5/GATA4/TEAD4/TEAD1/TEAD2/TEAD3</t>
+  </si>
+  <si>
+    <t>FCRL4/RPL7P51/RPL7P33/GP1BB/EEF1GP3/ADGRG7/ACTBP2/LYZ/CTSLP3/PPIAP28</t>
+  </si>
+  <si>
+    <t>HES5/HEYL/HEY1/HES1/HEY2/PBX1</t>
+  </si>
+  <si>
+    <t>MAP3K8/CDADC1/RPL31P7/RORA/MTMR10/SLC22A2/CCER1/RPL34P6/PAICS/FLT1P1/XCR1</t>
+  </si>
+  <si>
+    <t>SOX9/SOX2/SOX6/SOX7/TCF7L1/SOX13</t>
+  </si>
+  <si>
+    <t>EDRF1/VCX/FICD/MTRF1L/IGLV4-3/ELF1/KBTBD6/KBTBD7/MTRF1/WBP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
     </font>
     <font>
       <sz val="12"/>
@@ -136,6 +131,19 @@
       <color theme="1"/>
       <name val="Aptos"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,21 +200,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,65 +298,203 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Aptos"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -289,86 +511,21 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -386,16 +543,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA3DC11E-C1AA-1C4F-8B54-975BDF39D80F}" name="Table2" displayName="Table2" ref="A3:D8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A3:D8" xr:uid="{EEC8D992-B7B8-1843-8935-D9C66615026F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D8">
-    <sortCondition ref="B3:B8"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1774550-CFC2-DB4C-83C1-CB4AF84DA973}" name="Table1" displayName="Table1" ref="A3:D8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A3:D8" xr:uid="{E1774550-CFC2-DB4C-83C1-CB4AF84DA973}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A9368E0A-3620-544E-A30A-9CE9DB5DD067}" name="Pathways" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FDBDEBC3-0B65-4747-9A53-94ED9E4FBE07}" name="p.adjust" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{249F1AE7-F403-1643-952D-1B7229C43725}" name="TFs" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{42CDB910-A5D2-7D4E-BFD3-60D98A92C620}" name="Downstream genes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A7A25292-CC7E-BC4D-B957-6FB05A60C5F1}" name="Pathways" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D8010F16-0DCC-B147-871F-0EEB29D49203}" name="p.adjust" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4A4F549F-B556-F048-AA5F-8870897FFDD6}" name="TFs" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6CCD977C-C8A4-8242-8FB9-824E682B1AD6}" name="Downstream genes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,112 +874,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C53AC7-5239-9242-9B08-140425CE95FA}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="103.6640625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="103.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <v>3.58551492006956E-8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="8">
+        <v>1.93719408516844E-10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.4707837448085002E-6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.0161819640412699E-6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.53131036595888E-5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.5729972164656396E-6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.9576580452263901E-5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.2736315356950999E-5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.0797559053437401E-3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="12">
+        <v>3.58392275760147E-4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
